--- a/src/main/resources/documents/rezervni.xlsx
+++ b/src/main/resources/documents/rezervni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gikbl034\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Documents\Izbori\flow-crm-tutorial\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EBF94A-5D4E-4D7A-95DB-2560BEDE6F04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D83C7-8897-42AA-B93C-95C64B36CF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="РЕЗЕРВНИ ЧЛАНОВИ" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6469" uniqueCount="3665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6613" uniqueCount="3809">
   <si>
     <t>Телефон</t>
   </si>
@@ -11047,14 +11047,443 @@
   <si>
     <t>ВЕДРАНА ДОЈЧИНОВИЋ</t>
   </si>
+  <si>
+    <t>2507003106432</t>
+  </si>
+  <si>
+    <t>3001998105096</t>
+  </si>
+  <si>
+    <t>2410988105067</t>
+  </si>
+  <si>
+    <t>0504005105011</t>
+  </si>
+  <si>
+    <t>0406976100006</t>
+  </si>
+  <si>
+    <t>20771105031</t>
+  </si>
+  <si>
+    <t>3008976100001</t>
+  </si>
+  <si>
+    <t>1901998105006</t>
+  </si>
+  <si>
+    <t>1902988105020</t>
+  </si>
+  <si>
+    <t>2511989105053</t>
+  </si>
+  <si>
+    <t>1307004105011</t>
+  </si>
+  <si>
+    <t>2409969105023</t>
+  </si>
+  <si>
+    <t>1512997105022</t>
+  </si>
+  <si>
+    <t>1210983382116</t>
+  </si>
+  <si>
+    <t>0112997100002</t>
+  </si>
+  <si>
+    <t>2105974100022</t>
+  </si>
+  <si>
+    <t>0712979105002</t>
+  </si>
+  <si>
+    <t>0811996105006</t>
+  </si>
+  <si>
+    <t>0305999105039</t>
+  </si>
+  <si>
+    <t>0210975105002</t>
+  </si>
+  <si>
+    <t>2103006105069</t>
+  </si>
+  <si>
+    <t>1211961105034</t>
+  </si>
+  <si>
+    <t>2301965109312</t>
+  </si>
+  <si>
+    <t>3103960118248</t>
+  </si>
+  <si>
+    <t>1603945100036</t>
+  </si>
+  <si>
+    <t>1111002710234</t>
+  </si>
+  <si>
+    <t>1110004105005</t>
+  </si>
+  <si>
+    <t>1610988105046</t>
+  </si>
+  <si>
+    <t>0407986100000</t>
+  </si>
+  <si>
+    <t>0706988105031</t>
+  </si>
+  <si>
+    <t>0910959100043</t>
+  </si>
+  <si>
+    <t>1604987100016</t>
+  </si>
+  <si>
+    <t>1005984100022</t>
+  </si>
+  <si>
+    <t>2203965103932</t>
+  </si>
+  <si>
+    <t>1407986175047</t>
+  </si>
+  <si>
+    <t>1010982100068</t>
+  </si>
+  <si>
+    <t>0305988118244</t>
+  </si>
+  <si>
+    <t>0908996105026</t>
+  </si>
+  <si>
+    <t>0707992125000</t>
+  </si>
+  <si>
+    <t>1803989100016</t>
+  </si>
+  <si>
+    <t>2805980107731</t>
+  </si>
+  <si>
+    <t>2501976109119</t>
+  </si>
+  <si>
+    <t>0509996105024</t>
+  </si>
+  <si>
+    <t>1804000105002</t>
+  </si>
+  <si>
+    <t>0803991105021</t>
+  </si>
+  <si>
+    <t>1307983105019</t>
+  </si>
+  <si>
+    <t>2212000105001</t>
+  </si>
+  <si>
+    <t>1010003106437</t>
+  </si>
+  <si>
+    <t>1309967195027</t>
+  </si>
+  <si>
+    <t>1308978100080</t>
+  </si>
+  <si>
+    <t>0507985198079</t>
+  </si>
+  <si>
+    <t>1501980105035</t>
+  </si>
+  <si>
+    <t>1410992102389</t>
+  </si>
+  <si>
+    <t>2405978100012</t>
+  </si>
+  <si>
+    <t>1901974105005</t>
+  </si>
+  <si>
+    <t>1211004105022</t>
+  </si>
+  <si>
+    <t>2509952100022</t>
+  </si>
+  <si>
+    <t>2310948105035</t>
+  </si>
+  <si>
+    <t>0802995100060</t>
+  </si>
+  <si>
+    <t>2802981166988</t>
+  </si>
+  <si>
+    <t>1410947102734</t>
+  </si>
+  <si>
+    <t>1707971105070</t>
+  </si>
+  <si>
+    <t>1403967177181</t>
+  </si>
+  <si>
+    <t>2011963100018</t>
+  </si>
+  <si>
+    <t>1205960100012</t>
+  </si>
+  <si>
+    <t>2805985105001</t>
+  </si>
+  <si>
+    <t>0802993105049</t>
+  </si>
+  <si>
+    <t>2403003106378</t>
+  </si>
+  <si>
+    <t>2509966106465</t>
+  </si>
+  <si>
+    <t>2712979929851</t>
+  </si>
+  <si>
+    <t>807968103041</t>
+  </si>
+  <si>
+    <t>1309988105052</t>
+  </si>
+  <si>
+    <t>1108983105067</t>
+  </si>
+  <si>
+    <t>2903973105024</t>
+  </si>
+  <si>
+    <t>0502958105024</t>
+  </si>
+  <si>
+    <t>1209002105012</t>
+  </si>
+  <si>
+    <t>1303990105010</t>
+  </si>
+  <si>
+    <t>0507981100058</t>
+  </si>
+  <si>
+    <t>1801003105020</t>
+  </si>
+  <si>
+    <t>1005006100002</t>
+  </si>
+  <si>
+    <t>0301003105008</t>
+  </si>
+  <si>
+    <t>1812003101450</t>
+  </si>
+  <si>
+    <t>0807004100000</t>
+  </si>
+  <si>
+    <t>0712001105000</t>
+  </si>
+  <si>
+    <t>2307004100048</t>
+  </si>
+  <si>
+    <t>2106981100069</t>
+  </si>
+  <si>
+    <t>0808001100006</t>
+  </si>
+  <si>
+    <t>0301968143646</t>
+  </si>
+  <si>
+    <t>1510988345018</t>
+  </si>
+  <si>
+    <t>2304981105067</t>
+  </si>
+  <si>
+    <t>2607959116945</t>
+  </si>
+  <si>
+    <t>1508963105077</t>
+  </si>
+  <si>
+    <t>0902982100007</t>
+  </si>
+  <si>
+    <t>1810971100023</t>
+  </si>
+  <si>
+    <t>0211000105040</t>
+  </si>
+  <si>
+    <t>3010986100020</t>
+  </si>
+  <si>
+    <t>1002003105020</t>
+  </si>
+  <si>
+    <t>2607984330102</t>
+  </si>
+  <si>
+    <t>0306973162510</t>
+  </si>
+  <si>
+    <t>1406004100042</t>
+  </si>
+  <si>
+    <t>0110973105086</t>
+  </si>
+  <si>
+    <t>2102952105048</t>
+  </si>
+  <si>
+    <t>0204996105037</t>
+  </si>
+  <si>
+    <t>1906995100099</t>
+  </si>
+  <si>
+    <t>0108987198104</t>
+  </si>
+  <si>
+    <t>0102982105010</t>
+  </si>
+  <si>
+    <t>2609997105003</t>
+  </si>
+  <si>
+    <t>0607005105007</t>
+  </si>
+  <si>
+    <t>1904999105025</t>
+  </si>
+  <si>
+    <t>0707966196765</t>
+  </si>
+  <si>
+    <t>2410992100053</t>
+  </si>
+  <si>
+    <t>0403972104326</t>
+  </si>
+  <si>
+    <t>1202976125008</t>
+  </si>
+  <si>
+    <t>0402973100018</t>
+  </si>
+  <si>
+    <t>0303996105051</t>
+  </si>
+  <si>
+    <t>2306964105005</t>
+  </si>
+  <si>
+    <t>0909996105022</t>
+  </si>
+  <si>
+    <t>0312987195012</t>
+  </si>
+  <si>
+    <t>2005976168312</t>
+  </si>
+  <si>
+    <t>0701976145028</t>
+  </si>
+  <si>
+    <t>2202976105051</t>
+  </si>
+  <si>
+    <t>1408983152654</t>
+  </si>
+  <si>
+    <t>0105957100070</t>
+  </si>
+  <si>
+    <t>1708967100052</t>
+  </si>
+  <si>
+    <t>1206988105008</t>
+  </si>
+  <si>
+    <t>2612995105015</t>
+  </si>
+  <si>
+    <t>1002998100034</t>
+  </si>
+  <si>
+    <t>0806982105034</t>
+  </si>
+  <si>
+    <t>3012001100059</t>
+  </si>
+  <si>
+    <t>0908971108276</t>
+  </si>
+  <si>
+    <t>2009985105000</t>
+  </si>
+  <si>
+    <t>1509962105037</t>
+  </si>
+  <si>
+    <t>2609988100066</t>
+  </si>
+  <si>
+    <t>2105994100010</t>
+  </si>
+  <si>
+    <t>2105993715178</t>
+  </si>
+  <si>
+    <t>2406962113242</t>
+  </si>
+  <si>
+    <t>1406972105031</t>
+  </si>
+  <si>
+    <t>1406980100022</t>
+  </si>
+  <si>
+    <t>0711963111944</t>
+  </si>
+  <si>
+    <t>2503993100039</t>
+  </si>
+  <si>
+    <t>2910970179139</t>
+  </si>
+  <si>
+    <t>0207968100002</t>
+  </si>
+  <si>
+    <t>1002950500030</t>
+  </si>
+  <si>
+    <t>1608946105017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000000000000"/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11214,7 +11643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -11236,13 +11665,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11251,7 +11680,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -11267,9 +11696,8 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11279,23 +11707,11 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11579,8 +11995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
-      <selection activeCell="B694" sqref="B694"/>
+    <sheetView tabSelected="1" topLeftCell="A942" workbookViewId="0">
+      <selection activeCell="D960" sqref="D960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11588,7 +12004,7 @@
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17" style="35" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="6" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="35.85546875" style="6" customWidth="1"/>
@@ -11605,7 +12021,7 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -11640,7 +12056,7 @@
       <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11666,7 +12082,7 @@
       <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11690,7 +12106,7 @@
       <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11714,7 +12130,7 @@
       <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11740,7 +12156,7 @@
       <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11766,7 +12182,7 @@
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11792,7 +12208,7 @@
       <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11818,7 +12234,7 @@
       <c r="G9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11844,7 +12260,7 @@
       <c r="G10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11870,7 +12286,7 @@
       <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11896,7 +12312,7 @@
       <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11922,7 +12338,7 @@
       <c r="G13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11948,7 +12364,7 @@
       <c r="G14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" t="s">
         <v>554</v>
       </c>
     </row>
@@ -11974,7 +12390,7 @@
       <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12000,7 +12416,7 @@
       <c r="G16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12026,7 +12442,7 @@
       <c r="G17" s="5" t="s">
         <v>3661</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12052,7 +12468,7 @@
       <c r="G18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12078,7 +12494,7 @@
       <c r="G19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12104,7 +12520,7 @@
       <c r="G20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12130,7 +12546,7 @@
       <c r="G21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12156,7 +12572,7 @@
       <c r="G22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12182,7 +12598,7 @@
       <c r="G23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12208,7 +12624,7 @@
       <c r="G24" s="5" t="s">
         <v>3661</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12234,7 +12650,7 @@
       <c r="G25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12260,7 +12676,7 @@
       <c r="G26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12286,7 +12702,7 @@
       <c r="G27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12312,7 +12728,7 @@
       <c r="G28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12338,7 +12754,7 @@
       <c r="G29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12364,7 +12780,7 @@
       <c r="G30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12390,7 +12806,7 @@
       <c r="G31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12416,7 +12832,7 @@
       <c r="G32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12442,7 +12858,7 @@
       <c r="G33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12468,7 +12884,7 @@
       <c r="G34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12494,7 +12910,7 @@
       <c r="G35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12520,7 +12936,7 @@
       <c r="G36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12546,7 +12962,7 @@
       <c r="G37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12572,7 +12988,7 @@
       <c r="G38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12598,7 +13014,7 @@
       <c r="G39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12624,7 +13040,7 @@
       <c r="G40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H40" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12650,7 +13066,7 @@
       <c r="G41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12676,7 +13092,7 @@
       <c r="G42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="H42" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12702,7 +13118,7 @@
       <c r="G43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="31" t="s">
+      <c r="H43" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12728,7 +13144,7 @@
       <c r="G44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12754,7 +13170,7 @@
       <c r="G45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12780,7 +13196,7 @@
       <c r="G46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12806,7 +13222,7 @@
       <c r="G47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12832,7 +13248,7 @@
       <c r="G48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H48" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12858,7 +13274,7 @@
       <c r="G49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12884,7 +13300,7 @@
       <c r="G50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12910,7 +13326,7 @@
       <c r="G51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="H51" t="s">
         <v>554</v>
       </c>
       <c r="I51" s="11"/>
@@ -12939,7 +13355,7 @@
       <c r="G52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="H52" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12965,7 +13381,7 @@
       <c r="G53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12991,7 +13407,7 @@
       <c r="G54" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="H54" t="s">
         <v>554</v>
       </c>
       <c r="I54"/>
@@ -13020,7 +13436,7 @@
       <c r="G55" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="H55" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13046,7 +13462,7 @@
       <c r="G56" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13072,7 +13488,7 @@
       <c r="G57" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13098,7 +13514,7 @@
       <c r="G58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="H58" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13124,7 +13540,7 @@
       <c r="G59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="31" t="s">
+      <c r="H59" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13150,7 +13566,7 @@
       <c r="G60" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="H60" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13176,7 +13592,7 @@
       <c r="G61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13202,7 +13618,7 @@
       <c r="G62" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="H62" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13228,7 +13644,7 @@
       <c r="G63" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="H63" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13254,7 +13670,7 @@
       <c r="G64" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="H64" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13280,7 +13696,7 @@
       <c r="G65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13306,7 +13722,7 @@
       <c r="G66" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13332,7 +13748,7 @@
       <c r="G67" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="H67" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13358,7 +13774,7 @@
       <c r="G68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="H68" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13384,7 +13800,7 @@
       <c r="G69" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="H69" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13410,7 +13826,7 @@
       <c r="G70" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="H70" s="31" t="s">
+      <c r="H70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13436,7 +13852,7 @@
       <c r="G71" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H71" s="31" t="s">
+      <c r="H71" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13462,7 +13878,7 @@
       <c r="G72" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13488,7 +13904,7 @@
       <c r="G73" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="H73" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13514,7 +13930,7 @@
       <c r="G74" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H74" s="31" t="s">
+      <c r="H74" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13540,7 +13956,7 @@
       <c r="G75" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H75" s="31" t="s">
+      <c r="H75" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13566,7 +13982,7 @@
       <c r="G76" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H76" s="31" t="s">
+      <c r="H76" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13592,7 +14008,7 @@
       <c r="G77" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="H77" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13618,7 +14034,7 @@
       <c r="G78" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="H78" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13644,7 +14060,7 @@
       <c r="G79" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="H79" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13670,7 +14086,7 @@
       <c r="G80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13696,7 +14112,7 @@
       <c r="G81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13722,7 +14138,7 @@
       <c r="G82" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="H82" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13748,7 +14164,7 @@
       <c r="G83" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="H83" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13772,7 +14188,7 @@
       <c r="G84" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="H84" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13798,7 +14214,7 @@
       <c r="G85" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H85" s="31" t="s">
+      <c r="H85" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13824,7 +14240,7 @@
       <c r="G86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="H86" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13850,7 +14266,7 @@
       <c r="G87" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="H87" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13876,7 +14292,7 @@
       <c r="G88" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H88" s="31" t="s">
+      <c r="H88" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13902,7 +14318,7 @@
       <c r="G89" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H89" s="31" t="s">
+      <c r="H89" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13928,7 +14344,7 @@
       <c r="G90" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H90" s="31" t="s">
+      <c r="H90" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13952,7 +14368,7 @@
       <c r="G91" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H91" s="31" t="s">
+      <c r="H91" t="s">
         <v>554</v>
       </c>
     </row>
@@ -13978,7 +14394,7 @@
       <c r="G92" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H92" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14004,7 +14420,7 @@
       <c r="G93" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="H93" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14030,7 +14446,7 @@
       <c r="G94" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H94" s="31" t="s">
+      <c r="H94" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14056,7 +14472,7 @@
       <c r="G95" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H95" s="31" t="s">
+      <c r="H95" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14082,7 +14498,7 @@
       <c r="G96" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H96" s="31" t="s">
+      <c r="H96" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14108,7 +14524,7 @@
       <c r="G97" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H97" s="31" t="s">
+      <c r="H97" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14134,7 +14550,7 @@
       <c r="G98" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H98" s="31" t="s">
+      <c r="H98" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14160,7 +14576,7 @@
       <c r="G99" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H99" s="31" t="s">
+      <c r="H99" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14186,7 +14602,7 @@
       <c r="G100" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H100" s="31" t="s">
+      <c r="H100" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14212,7 +14628,7 @@
       <c r="G101" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="31" t="s">
+      <c r="H101" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14238,7 +14654,7 @@
       <c r="G102" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="31" t="s">
+      <c r="H102" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14264,7 +14680,7 @@
       <c r="G103" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H103" s="31" t="s">
+      <c r="H103" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14290,7 +14706,7 @@
       <c r="G104" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="31" t="s">
+      <c r="H104" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14316,7 +14732,7 @@
       <c r="G105" s="5" t="s">
         <v>3661</v>
       </c>
-      <c r="H105" s="31" t="s">
+      <c r="H105" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14342,7 +14758,7 @@
       <c r="G106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="31" t="s">
+      <c r="H106" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14368,7 +14784,7 @@
       <c r="G107" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H107" s="31" t="s">
+      <c r="H107" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14394,7 +14810,7 @@
       <c r="G108" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H108" s="31" t="s">
+      <c r="H108" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14420,7 +14836,7 @@
       <c r="G109" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H109" s="31" t="s">
+      <c r="H109" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14446,7 +14862,7 @@
       <c r="G110" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="31" t="s">
+      <c r="H110" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14472,7 +14888,7 @@
       <c r="G111" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="31" t="s">
+      <c r="H111" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14498,7 +14914,7 @@
       <c r="G112" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H112" s="31" t="s">
+      <c r="H112" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14524,7 +14940,7 @@
       <c r="G113" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H113" s="31" t="s">
+      <c r="H113" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14550,7 +14966,7 @@
       <c r="G114" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H114" s="31" t="s">
+      <c r="H114" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14576,7 +14992,7 @@
       <c r="G115" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H115" s="31" t="s">
+      <c r="H115" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14602,7 +15018,7 @@
       <c r="G116" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H116" s="31" t="s">
+      <c r="H116" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14626,7 +15042,7 @@
       <c r="G117" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H117" s="31" t="s">
+      <c r="H117" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14652,7 +15068,7 @@
       <c r="G118" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H118" s="31" t="s">
+      <c r="H118" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14678,7 +15094,7 @@
       <c r="G119" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="H119" s="31" t="s">
+      <c r="H119" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14704,7 +15120,7 @@
       <c r="G120" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H120" s="31" t="s">
+      <c r="H120" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14730,7 +15146,7 @@
       <c r="G121" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H121" s="31" t="s">
+      <c r="H121" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14756,7 +15172,7 @@
       <c r="G122" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H122" s="31" t="s">
+      <c r="H122" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14782,7 +15198,7 @@
       <c r="G123" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H123" s="31" t="s">
+      <c r="H123" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14808,7 +15224,7 @@
       <c r="G124" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H124" s="31" t="s">
+      <c r="H124" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14834,7 +15250,7 @@
       <c r="G125" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H125" s="31" t="s">
+      <c r="H125" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14860,7 +15276,7 @@
       <c r="G126" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H126" s="31" t="s">
+      <c r="H126" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14886,7 +15302,7 @@
       <c r="G127" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="31" t="s">
+      <c r="H127" t="s">
         <v>554</v>
       </c>
       <c r="I127" s="13"/>
@@ -14913,7 +15329,7 @@
       <c r="G128" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="31" t="s">
+      <c r="H128" t="s">
         <v>554</v>
       </c>
       <c r="I128" s="13"/>
@@ -14942,7 +15358,7 @@
       <c r="G129" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="31" t="s">
+      <c r="H129" t="s">
         <v>554</v>
       </c>
       <c r="I129" s="12"/>
@@ -14971,7 +15387,7 @@
       <c r="G130" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H130" s="31" t="s">
+      <c r="H130" t="s">
         <v>554</v>
       </c>
       <c r="I130" s="12"/>
@@ -15000,7 +15416,7 @@
       <c r="G131" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H131" s="31" t="s">
+      <c r="H131" t="s">
         <v>554</v>
       </c>
       <c r="I131" s="13"/>
@@ -15027,7 +15443,7 @@
       <c r="G132" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="32" t="s">
+      <c r="H132" s="31" t="s">
         <v>554</v>
       </c>
       <c r="I132" s="15"/>
@@ -15054,7 +15470,7 @@
       <c r="G133" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H133" s="32" t="s">
+      <c r="H133" s="31" t="s">
         <v>554</v>
       </c>
       <c r="I133" s="14"/>
@@ -15078,7 +15494,7 @@
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="19"/>
-      <c r="H134" s="32" t="s">
+      <c r="H134" s="31" t="s">
         <v>554</v>
       </c>
       <c r="I134" s="14"/>
@@ -15458,7 +15874,7 @@
       <c r="C149" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="34" t="s">
+      <c r="D149" s="33" t="s">
         <v>608</v>
       </c>
       <c r="E149" s="19" t="s">
@@ -15480,7 +15896,7 @@
       <c r="C150" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="34" t="s">
+      <c r="D150" s="33" t="s">
         <v>611</v>
       </c>
       <c r="E150" s="19" t="s">
@@ -15502,7 +15918,7 @@
       <c r="C151" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D151" s="33" t="s">
         <v>614</v>
       </c>
       <c r="E151" s="19" t="s">
@@ -16720,7 +17136,7 @@
       <c r="C198" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D198" s="34"/>
+      <c r="D198" s="33"/>
       <c r="E198" s="19" t="s">
         <v>801</v>
       </c>
@@ -17082,7 +17498,7 @@
       <c r="C212" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D212" s="34" t="s">
+      <c r="D212" s="33" t="s">
         <v>856</v>
       </c>
       <c r="E212" s="19" t="s">
@@ -18092,7 +18508,7 @@
       <c r="C251" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D251" s="34" t="s">
+      <c r="D251" s="33" t="s">
         <v>1012</v>
       </c>
       <c r="E251" s="19" t="s">
@@ -18452,7 +18868,7 @@
       <c r="C265" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D265" s="34" t="s">
+      <c r="D265" s="33" t="s">
         <v>1067</v>
       </c>
       <c r="E265" s="19" t="s">
@@ -18578,7 +18994,7 @@
       <c r="C270" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D270" s="34" t="s">
+      <c r="D270" s="33" t="s">
         <v>1086</v>
       </c>
       <c r="E270" s="19" t="s">
@@ -18786,7 +19202,7 @@
       <c r="C278" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D278" s="34" t="s">
+      <c r="D278" s="33" t="s">
         <v>1117</v>
       </c>
       <c r="E278" s="19" t="s">
@@ -19124,7 +19540,7 @@
       <c r="C291" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D291" s="34" t="s">
+      <c r="D291" s="33" t="s">
         <v>1169</v>
       </c>
       <c r="E291" s="19" t="s">
@@ -24780,7 +25196,7 @@
       <c r="C509" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D509" s="35" t="s">
+      <c r="D509" s="34" t="s">
         <v>3625</v>
       </c>
       <c r="E509" s="28" t="s">
@@ -24804,7 +25220,7 @@
       <c r="C510" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D510" s="35" t="s">
+      <c r="D510" s="34" t="s">
         <v>3629</v>
       </c>
       <c r="E510" s="28" t="s">
@@ -24848,7 +25264,7 @@
       <c r="C512" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D512" s="35" t="s">
+      <c r="D512" s="34" t="s">
         <v>3636</v>
       </c>
       <c r="E512" s="28" t="s">
@@ -24894,7 +25310,7 @@
       <c r="C514" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D514" s="35" t="s">
+      <c r="D514" s="34" t="s">
         <v>3644</v>
       </c>
       <c r="E514" s="28" t="s">
@@ -24918,7 +25334,7 @@
       <c r="C515" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D515" s="35" t="s">
+      <c r="D515" s="34" t="s">
         <v>3648</v>
       </c>
       <c r="E515" s="28" t="s">
@@ -28847,8 +29263,8 @@
       <c r="C668" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D668" s="36">
-        <v>2507003106432</v>
+      <c r="D668" s="16" t="s">
+        <v>3665</v>
       </c>
       <c r="E668" s="5" t="s">
         <v>2625</v>
@@ -28873,8 +29289,8 @@
       <c r="C669" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D669" s="36">
-        <v>3001998105096</v>
+      <c r="D669" s="16" t="s">
+        <v>3666</v>
       </c>
       <c r="E669" s="5" t="s">
         <v>2627</v>
@@ -28899,8 +29315,8 @@
       <c r="C670" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D670" s="36">
-        <v>2410988105067</v>
+      <c r="D670" s="16" t="s">
+        <v>3667</v>
       </c>
       <c r="E670" s="5" t="s">
         <v>2630</v>
@@ -28925,8 +29341,8 @@
       <c r="C671" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D671" s="36">
-        <v>54005105011</v>
+      <c r="D671" s="16" t="s">
+        <v>3668</v>
       </c>
       <c r="E671" s="5" t="s">
         <v>2633</v>
@@ -28951,8 +29367,8 @@
       <c r="C672" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D672" s="36">
-        <v>406976100006</v>
+      <c r="D672" s="16" t="s">
+        <v>3669</v>
       </c>
       <c r="E672" s="5" t="s">
         <v>2636</v>
@@ -28977,8 +29393,8 @@
       <c r="C673" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D673" s="36">
-        <v>20771105031</v>
+      <c r="D673" s="16" t="s">
+        <v>3670</v>
       </c>
       <c r="E673" s="5" t="s">
         <v>2639</v>
@@ -29003,8 +29419,8 @@
       <c r="C674" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D674" s="36">
-        <v>3008976100001</v>
+      <c r="D674" s="16" t="s">
+        <v>3671</v>
       </c>
       <c r="E674" s="5" t="s">
         <v>2642</v>
@@ -29029,8 +29445,8 @@
       <c r="C675" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D675" s="36">
-        <v>1410992102389</v>
+      <c r="D675" s="16" t="s">
+        <v>3717</v>
       </c>
       <c r="E675" s="5" t="s">
         <v>2645</v>
@@ -29055,8 +29471,8 @@
       <c r="C676" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D676" s="36">
-        <v>2405978100012</v>
+      <c r="D676" s="16" t="s">
+        <v>3718</v>
       </c>
       <c r="E676" s="5" t="s">
         <v>2648</v>
@@ -29081,8 +29497,8 @@
       <c r="C677" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D677" s="36">
-        <v>1901974105005</v>
+      <c r="D677" s="16" t="s">
+        <v>3719</v>
       </c>
       <c r="E677" s="5" t="s">
         <v>2651</v>
@@ -29107,8 +29523,8 @@
       <c r="C678" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D678" s="36">
-        <v>1211004105022</v>
+      <c r="D678" s="16" t="s">
+        <v>3720</v>
       </c>
       <c r="E678" s="5" t="s">
         <v>2654</v>
@@ -29133,8 +29549,8 @@
       <c r="C679" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D679" s="36">
-        <v>2509952100022</v>
+      <c r="D679" s="16" t="s">
+        <v>3721</v>
       </c>
       <c r="E679" s="5" t="s">
         <v>2657</v>
@@ -29159,8 +29575,8 @@
       <c r="C680" s="5" t="s">
         <v>2660</v>
       </c>
-      <c r="D680" s="36">
-        <v>2310948105035</v>
+      <c r="D680" s="16" t="s">
+        <v>3722</v>
       </c>
       <c r="E680" s="5" t="s">
         <v>2661</v>
@@ -29185,8 +29601,8 @@
       <c r="C681" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D681" s="36">
-        <v>802995100060</v>
+      <c r="D681" s="16" t="s">
+        <v>3723</v>
       </c>
       <c r="E681" s="5" t="s">
         <v>2664</v>
@@ -29211,8 +29627,8 @@
       <c r="C682" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D682" s="36">
-        <v>2802981166988</v>
+      <c r="D682" s="16" t="s">
+        <v>3724</v>
       </c>
       <c r="E682" s="5" t="s">
         <v>2668</v>
@@ -29237,8 +29653,8 @@
       <c r="C683" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D683" s="36">
-        <v>1410947102734</v>
+      <c r="D683" s="16" t="s">
+        <v>3725</v>
       </c>
       <c r="E683" s="5" t="s">
         <v>2671</v>
@@ -29263,8 +29679,8 @@
       <c r="C684" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D684" s="36">
-        <v>1707971105070</v>
+      <c r="D684" s="16" t="s">
+        <v>3726</v>
       </c>
       <c r="E684" s="5" t="s">
         <v>2675</v>
@@ -29289,8 +29705,8 @@
       <c r="C685" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D685" s="36">
-        <v>1403967177181</v>
+      <c r="D685" s="16" t="s">
+        <v>3727</v>
       </c>
       <c r="E685" s="5" t="s">
         <v>2678</v>
@@ -29315,8 +29731,8 @@
       <c r="C686" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D686" s="36">
-        <v>2011963100018</v>
+      <c r="D686" s="16" t="s">
+        <v>3728</v>
       </c>
       <c r="E686" s="5" t="s">
         <v>2681</v>
@@ -29341,8 +29757,8 @@
       <c r="C687" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D687" s="36">
-        <v>1205960100012</v>
+      <c r="D687" s="16" t="s">
+        <v>3729</v>
       </c>
       <c r="E687" s="5" t="s">
         <v>2684</v>
@@ -29367,8 +29783,8 @@
       <c r="C688" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D688" s="36">
-        <v>2805985105001</v>
+      <c r="D688" s="16" t="s">
+        <v>3730</v>
       </c>
       <c r="E688" s="5" t="s">
         <v>2686</v>
@@ -29393,8 +29809,8 @@
       <c r="C689" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D689" s="36">
-        <v>802993105049</v>
+      <c r="D689" s="16" t="s">
+        <v>3731</v>
       </c>
       <c r="E689" s="5" t="s">
         <v>2689</v>
@@ -29419,8 +29835,8 @@
       <c r="C690" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D690" s="36">
-        <v>2403003106378</v>
+      <c r="D690" s="16" t="s">
+        <v>3732</v>
       </c>
       <c r="E690" s="5" t="s">
         <v>2692</v>
@@ -29445,8 +29861,8 @@
       <c r="C691" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D691" s="36">
-        <v>2509966106465</v>
+      <c r="D691" s="16" t="s">
+        <v>3733</v>
       </c>
       <c r="E691" s="5" t="s">
         <v>2695</v>
@@ -29471,8 +29887,8 @@
       <c r="C692" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D692" s="36">
-        <v>2712979929851</v>
+      <c r="D692" s="16" t="s">
+        <v>3734</v>
       </c>
       <c r="E692" s="5" t="s">
         <v>2698</v>
@@ -29497,8 +29913,8 @@
       <c r="C693" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D693" s="36">
-        <v>807968103041</v>
+      <c r="D693" s="16" t="s">
+        <v>3735</v>
       </c>
       <c r="E693" s="5" t="s">
         <v>2701</v>
@@ -29514,17 +29930,17 @@
       </c>
     </row>
     <row r="694" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="40">
+      <c r="A694" s="36">
         <v>693</v>
       </c>
-      <c r="B694" s="41" t="s">
+      <c r="B694" s="37" t="s">
         <v>3664</v>
       </c>
       <c r="C694" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D694" s="42">
-        <v>1309988105052</v>
+      <c r="D694" s="34" t="s">
+        <v>3736</v>
       </c>
       <c r="E694" s="28" t="s">
         <v>2703</v>
@@ -29549,8 +29965,8 @@
       <c r="C695" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D695" s="36">
-        <v>1108983105067</v>
+      <c r="D695" s="16" t="s">
+        <v>3737</v>
       </c>
       <c r="E695" s="5" t="s">
         <v>2706</v>
@@ -29575,8 +29991,8 @@
       <c r="C696" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D696" s="36">
-        <v>2903973105024</v>
+      <c r="D696" s="16" t="s">
+        <v>3738</v>
       </c>
       <c r="E696" s="5" t="s">
         <v>2709</v>
@@ -29601,8 +30017,8 @@
       <c r="C697" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D697" s="36">
-        <v>502958105024</v>
+      <c r="D697" s="16" t="s">
+        <v>3739</v>
       </c>
       <c r="E697" s="5" t="s">
         <v>2712</v>
@@ -29627,8 +30043,8 @@
       <c r="C698" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D698" s="36">
-        <v>1209002105012</v>
+      <c r="D698" s="16" t="s">
+        <v>3740</v>
       </c>
       <c r="E698" s="5" t="s">
         <v>2715</v>
@@ -29653,8 +30069,8 @@
       <c r="C699" s="5" t="s">
         <v>2660</v>
       </c>
-      <c r="D699" s="36">
-        <v>1303990105010</v>
+      <c r="D699" s="16" t="s">
+        <v>3741</v>
       </c>
       <c r="E699" s="5" t="s">
         <v>2718</v>
@@ -29677,8 +30093,8 @@
         <v>2720</v>
       </c>
       <c r="C700" s="19"/>
-      <c r="D700" s="37">
-        <v>507981100058</v>
+      <c r="D700" s="22" t="s">
+        <v>3742</v>
       </c>
       <c r="E700" s="19" t="s">
         <v>2721</v>
@@ -29699,8 +30115,8 @@
       <c r="C701" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D701" s="37">
-        <v>1801003105020</v>
+      <c r="D701" s="22" t="s">
+        <v>3743</v>
       </c>
       <c r="E701" s="19" t="s">
         <v>2723</v>
@@ -29721,8 +30137,8 @@
       <c r="C702" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D702" s="36">
-        <v>1005006100002</v>
+      <c r="D702" s="16" t="s">
+        <v>3744</v>
       </c>
       <c r="E702" s="5" t="s">
         <v>2725</v>
@@ -29747,8 +30163,8 @@
       <c r="C703" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D703" s="36">
-        <v>301003105008</v>
+      <c r="D703" s="16" t="s">
+        <v>3745</v>
       </c>
       <c r="E703" s="5" t="s">
         <v>2728</v>
@@ -29773,8 +30189,8 @@
       <c r="C704" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D704" s="37">
-        <v>1812003101450</v>
+      <c r="D704" s="22" t="s">
+        <v>3746</v>
       </c>
       <c r="E704" s="19" t="s">
         <v>2731</v>
@@ -29799,8 +30215,8 @@
       <c r="C705" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D705" s="37">
-        <v>807004100000</v>
+      <c r="D705" s="22" t="s">
+        <v>3747</v>
       </c>
       <c r="E705" s="19" t="s">
         <v>2733</v>
@@ -29825,8 +30241,8 @@
       <c r="C706" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D706" s="36">
-        <v>712001105000</v>
+      <c r="D706" s="16" t="s">
+        <v>3748</v>
       </c>
       <c r="E706" s="5" t="s">
         <v>2735</v>
@@ -29851,8 +30267,8 @@
       <c r="C707" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D707" s="36">
-        <v>2307004100048</v>
+      <c r="D707" s="16" t="s">
+        <v>3749</v>
       </c>
       <c r="E707" s="5" t="s">
         <v>2738</v>
@@ -29877,8 +30293,8 @@
       <c r="C708" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D708" s="36">
-        <v>2106981100069</v>
+      <c r="D708" s="16" t="s">
+        <v>3750</v>
       </c>
       <c r="E708" s="5" t="s">
         <v>2741</v>
@@ -29903,8 +30319,8 @@
       <c r="C709" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D709" s="36">
-        <v>808001100006</v>
+      <c r="D709" s="16" t="s">
+        <v>3751</v>
       </c>
       <c r="E709" s="5" t="s">
         <v>2744</v>
@@ -29929,8 +30345,8 @@
       <c r="C710" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D710" s="36">
-        <v>301968143646</v>
+      <c r="D710" s="16" t="s">
+        <v>3752</v>
       </c>
       <c r="E710" s="5" t="s">
         <v>2747</v>
@@ -29955,8 +30371,8 @@
       <c r="C711" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D711" s="36">
-        <v>1510988345018</v>
+      <c r="D711" s="16" t="s">
+        <v>3753</v>
       </c>
       <c r="E711" s="5" t="s">
         <v>2750</v>
@@ -29981,8 +30397,8 @@
       <c r="C712" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D712" s="36">
-        <v>2304981105067</v>
+      <c r="D712" s="16" t="s">
+        <v>3754</v>
       </c>
       <c r="E712" s="5" t="s">
         <v>2753</v>
@@ -30007,8 +30423,8 @@
       <c r="C713" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D713" s="36">
-        <v>2607959116945</v>
+      <c r="D713" s="16" t="s">
+        <v>3755</v>
       </c>
       <c r="E713" s="5" t="s">
         <v>2756</v>
@@ -30033,8 +30449,8 @@
       <c r="C714" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D714" s="36">
-        <v>1508963105077</v>
+      <c r="D714" s="16" t="s">
+        <v>3756</v>
       </c>
       <c r="E714" s="5" t="s">
         <v>2759</v>
@@ -30059,8 +30475,8 @@
       <c r="C715" s="5" t="s">
         <v>2762</v>
       </c>
-      <c r="D715" s="36">
-        <v>902982100007</v>
+      <c r="D715" s="16" t="s">
+        <v>3757</v>
       </c>
       <c r="E715" s="5" t="s">
         <v>2763</v>
@@ -30085,8 +30501,8 @@
       <c r="C716" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D716" s="36">
-        <v>1810971100023</v>
+      <c r="D716" s="16" t="s">
+        <v>3758</v>
       </c>
       <c r="E716" s="5" t="s">
         <v>2766</v>
@@ -30111,8 +30527,8 @@
       <c r="C717" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D717" s="36">
-        <v>211000105040</v>
+      <c r="D717" s="16" t="s">
+        <v>3759</v>
       </c>
       <c r="E717" s="5" t="s">
         <v>2769</v>
@@ -30137,8 +30553,8 @@
       <c r="C718" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D718" s="36">
-        <v>3010986100020</v>
+      <c r="D718" s="16" t="s">
+        <v>3760</v>
       </c>
       <c r="E718" s="5" t="s">
         <v>2772</v>
@@ -30163,8 +30579,8 @@
       <c r="C719" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D719" s="36">
-        <v>2009985105000</v>
+      <c r="D719" s="16" t="s">
+        <v>3795</v>
       </c>
       <c r="E719" s="5" t="s">
         <v>2775</v>
@@ -30189,8 +30605,8 @@
       <c r="C720" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D720" s="38">
-        <v>1509962105037</v>
+      <c r="D720" s="17" t="s">
+        <v>3796</v>
       </c>
       <c r="E720" s="9" t="s">
         <v>2778</v>
@@ -30215,8 +30631,8 @@
       <c r="C721" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D721" s="36">
-        <v>2609988100066</v>
+      <c r="D721" s="16" t="s">
+        <v>3797</v>
       </c>
       <c r="E721" s="5" t="s">
         <v>2781</v>
@@ -30241,8 +30657,8 @@
       <c r="C722" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D722" s="36">
-        <v>2105994100010</v>
+      <c r="D722" s="16" t="s">
+        <v>3798</v>
       </c>
       <c r="E722" s="5" t="s">
         <v>2784</v>
@@ -30267,8 +30683,8 @@
       <c r="C723" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D723" s="36">
-        <v>2105993715178</v>
+      <c r="D723" s="16" t="s">
+        <v>3799</v>
       </c>
       <c r="E723" s="5" t="s">
         <v>2787</v>
@@ -30293,8 +30709,8 @@
       <c r="C724" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D724" s="36">
-        <v>2406962113242</v>
+      <c r="D724" s="16" t="s">
+        <v>3800</v>
       </c>
       <c r="E724" s="5" t="s">
         <v>2790</v>
@@ -30319,8 +30735,8 @@
       <c r="C725" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D725" s="36">
-        <v>1608946105017</v>
+      <c r="D725" s="16" t="s">
+        <v>3808</v>
       </c>
       <c r="E725" s="5" t="s">
         <v>2793</v>
@@ -30345,8 +30761,8 @@
       <c r="C726" s="5" t="s">
         <v>2660</v>
       </c>
-      <c r="D726" s="36">
-        <v>1002950500030</v>
+      <c r="D726" s="16" t="s">
+        <v>3807</v>
       </c>
       <c r="E726" s="5" t="s">
         <v>2796</v>
@@ -30371,8 +30787,8 @@
       <c r="C727" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D727" s="36">
-        <v>207968100002</v>
+      <c r="D727" s="16" t="s">
+        <v>3806</v>
       </c>
       <c r="E727" s="5" t="s">
         <v>2799</v>
@@ -30397,8 +30813,8 @@
       <c r="C728" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D728" s="36">
-        <v>2910970179139</v>
+      <c r="D728" s="16" t="s">
+        <v>3805</v>
       </c>
       <c r="E728" s="5" t="s">
         <v>2802</v>
@@ -30423,8 +30839,8 @@
       <c r="C729" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D729" s="36">
-        <v>2503993100039</v>
+      <c r="D729" s="16" t="s">
+        <v>3804</v>
       </c>
       <c r="E729" s="5" t="s">
         <v>2805</v>
@@ -30449,8 +30865,8 @@
       <c r="C730" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D730" s="36">
-        <v>711963111944</v>
+      <c r="D730" s="16" t="s">
+        <v>3803</v>
       </c>
       <c r="E730" s="5" t="s">
         <v>2808</v>
@@ -30475,8 +30891,8 @@
       <c r="C731" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D731" s="36">
-        <v>1406980100022</v>
+      <c r="D731" s="16" t="s">
+        <v>3802</v>
       </c>
       <c r="E731" s="5" t="s">
         <v>2811</v>
@@ -30501,8 +30917,8 @@
       <c r="C732" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D732" s="36">
-        <v>1406972105031</v>
+      <c r="D732" s="16" t="s">
+        <v>3801</v>
       </c>
       <c r="E732" s="5" t="s">
         <v>2814</v>
@@ -30527,8 +30943,8 @@
       <c r="C733" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D733" s="36">
-        <v>908971108276</v>
+      <c r="D733" s="16" t="s">
+        <v>3794</v>
       </c>
       <c r="E733" s="5" t="s">
         <v>2817</v>
@@ -30553,8 +30969,8 @@
       <c r="C734" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D734" s="36">
-        <v>3012001100059</v>
+      <c r="D734" s="16" t="s">
+        <v>3793</v>
       </c>
       <c r="E734" s="5" t="s">
         <v>2820</v>
@@ -30579,8 +30995,8 @@
       <c r="C735" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D735" s="36">
-        <v>806982105034</v>
+      <c r="D735" s="16" t="s">
+        <v>3792</v>
       </c>
       <c r="E735" s="5" t="s">
         <v>2823</v>
@@ -30605,8 +31021,8 @@
       <c r="C736" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D736" s="36">
-        <v>1002998100034</v>
+      <c r="D736" s="16" t="s">
+        <v>3791</v>
       </c>
       <c r="E736" s="5" t="s">
         <v>2826</v>
@@ -30631,8 +31047,8 @@
       <c r="C737" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D737" s="36">
-        <v>2612995105015</v>
+      <c r="D737" s="16" t="s">
+        <v>3790</v>
       </c>
       <c r="E737" s="5" t="s">
         <v>2829</v>
@@ -30657,8 +31073,8 @@
       <c r="C738" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D738" s="36">
-        <v>1206988105008</v>
+      <c r="D738" s="16" t="s">
+        <v>3789</v>
       </c>
       <c r="E738" s="5" t="s">
         <v>2832</v>
@@ -30683,8 +31099,8 @@
       <c r="C739" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D739" s="36">
-        <v>1708967100052</v>
+      <c r="D739" s="16" t="s">
+        <v>3788</v>
       </c>
       <c r="E739" s="5" t="s">
         <v>2835</v>
@@ -30709,8 +31125,8 @@
       <c r="C740" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D740" s="36">
-        <v>105957100070</v>
+      <c r="D740" s="16" t="s">
+        <v>3787</v>
       </c>
       <c r="E740" s="5" t="s">
         <v>2838</v>
@@ -30735,8 +31151,8 @@
       <c r="C741" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D741" s="36">
-        <v>1408983152654</v>
+      <c r="D741" s="16" t="s">
+        <v>3786</v>
       </c>
       <c r="E741" s="5" t="s">
         <v>2841</v>
@@ -30761,8 +31177,8 @@
       <c r="C742" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D742" s="36">
-        <v>2202976105051</v>
+      <c r="D742" s="16" t="s">
+        <v>3785</v>
       </c>
       <c r="E742" s="5" t="s">
         <v>2844</v>
@@ -30787,8 +31203,8 @@
       <c r="C743" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D743" s="36">
-        <v>701976145028</v>
+      <c r="D743" s="16" t="s">
+        <v>3784</v>
       </c>
       <c r="E743" s="5" t="s">
         <v>2031</v>
@@ -30813,8 +31229,8 @@
       <c r="C744" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D744" s="36">
-        <v>2005976168312</v>
+      <c r="D744" s="16" t="s">
+        <v>3783</v>
       </c>
       <c r="E744" s="5" t="s">
         <v>2847</v>
@@ -30839,8 +31255,8 @@
       <c r="C745" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D745" s="36">
-        <v>312987195012</v>
+      <c r="D745" s="16" t="s">
+        <v>3782</v>
       </c>
       <c r="E745" s="5" t="s">
         <v>2850</v>
@@ -30865,8 +31281,8 @@
       <c r="C746" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D746" s="36">
-        <v>909996105022</v>
+      <c r="D746" s="16" t="s">
+        <v>3781</v>
       </c>
       <c r="E746" s="5" t="s">
         <v>2853</v>
@@ -30891,8 +31307,8 @@
       <c r="C747" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D747" s="36">
-        <v>2306964105005</v>
+      <c r="D747" s="16" t="s">
+        <v>3780</v>
       </c>
       <c r="E747" s="5" t="s">
         <v>2856</v>
@@ -30917,8 +31333,8 @@
       <c r="C748" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D748" s="36">
-        <v>303996105051</v>
+      <c r="D748" s="16" t="s">
+        <v>3779</v>
       </c>
       <c r="E748" s="5" t="s">
         <v>2859</v>
@@ -30943,8 +31359,8 @@
       <c r="C749" s="5" t="s">
         <v>2660</v>
       </c>
-      <c r="D749" s="36">
-        <v>402973100018</v>
+      <c r="D749" s="16" t="s">
+        <v>3778</v>
       </c>
       <c r="E749" s="5" t="s">
         <v>2862</v>
@@ -30969,8 +31385,8 @@
       <c r="C750" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D750" s="36">
-        <v>1202976125008</v>
+      <c r="D750" s="16" t="s">
+        <v>3777</v>
       </c>
       <c r="E750" s="5" t="s">
         <v>2865</v>
@@ -30995,8 +31411,8 @@
       <c r="C751" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D751" s="36">
-        <v>403972104326</v>
+      <c r="D751" s="16" t="s">
+        <v>3776</v>
       </c>
       <c r="E751" s="5" t="s">
         <v>2868</v>
@@ -31021,8 +31437,8 @@
       <c r="C752" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D752" s="36">
-        <v>2410992100053</v>
+      <c r="D752" s="16" t="s">
+        <v>3775</v>
       </c>
       <c r="E752" s="5" t="s">
         <v>2871</v>
@@ -31047,8 +31463,8 @@
       <c r="C753" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D753" s="36">
-        <v>707966196765</v>
+      <c r="D753" s="16" t="s">
+        <v>3774</v>
       </c>
       <c r="E753" s="5" t="s">
         <v>2874</v>
@@ -31073,8 +31489,8 @@
       <c r="C754" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D754" s="36">
-        <v>1904999105025</v>
+      <c r="D754" s="16" t="s">
+        <v>3773</v>
       </c>
       <c r="E754" s="5" t="s">
         <v>2877</v>
@@ -31099,8 +31515,8 @@
       <c r="C755" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D755" s="36">
-        <v>607005105007</v>
+      <c r="D755" s="16" t="s">
+        <v>3772</v>
       </c>
       <c r="E755" s="5" t="s">
         <v>2880</v>
@@ -31125,8 +31541,8 @@
       <c r="C756" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D756" s="36">
-        <v>2609997105003</v>
+      <c r="D756" s="16" t="s">
+        <v>3771</v>
       </c>
       <c r="E756" s="5" t="s">
         <v>2882</v>
@@ -31151,8 +31567,8 @@
       <c r="C757" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D757" s="36">
-        <v>102982105010</v>
+      <c r="D757" s="16" t="s">
+        <v>3770</v>
       </c>
       <c r="E757" s="5" t="s">
         <v>2885</v>
@@ -31177,8 +31593,8 @@
       <c r="C758" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D758" s="36">
-        <v>108987198104</v>
+      <c r="D758" s="16" t="s">
+        <v>3769</v>
       </c>
       <c r="E758" s="5" t="s">
         <v>2888</v>
@@ -31203,8 +31619,8 @@
       <c r="C759" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D759" s="36">
-        <v>1906995100099</v>
+      <c r="D759" s="16" t="s">
+        <v>3768</v>
       </c>
       <c r="E759" s="5" t="s">
         <v>2891</v>
@@ -31229,8 +31645,8 @@
       <c r="C760" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D760" s="36">
-        <v>204996105037</v>
+      <c r="D760" s="16" t="s">
+        <v>3767</v>
       </c>
       <c r="E760" s="5" t="s">
         <v>2894</v>
@@ -31255,8 +31671,8 @@
       <c r="C761" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D761" s="36">
-        <v>2102952105048</v>
+      <c r="D761" s="16" t="s">
+        <v>3766</v>
       </c>
       <c r="E761" s="5" t="s">
         <v>2897</v>
@@ -31281,8 +31697,8 @@
       <c r="C762" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D762" s="36">
-        <v>110973105086</v>
+      <c r="D762" s="16" t="s">
+        <v>3765</v>
       </c>
       <c r="E762" s="5" t="s">
         <v>2900</v>
@@ -31307,8 +31723,8 @@
       <c r="C763" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D763" s="36">
-        <v>1406004100042</v>
+      <c r="D763" s="16" t="s">
+        <v>3764</v>
       </c>
       <c r="E763" s="5" t="s">
         <v>2903</v>
@@ -31333,8 +31749,8 @@
       <c r="C764" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D764" s="36">
-        <v>306973162510</v>
+      <c r="D764" s="16" t="s">
+        <v>3763</v>
       </c>
       <c r="E764" s="5" t="s">
         <v>2906</v>
@@ -31359,8 +31775,8 @@
       <c r="C765" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D765" s="36">
-        <v>1002003105020</v>
+      <c r="D765" s="16" t="s">
+        <v>3761</v>
       </c>
       <c r="E765" s="5" t="s">
         <v>2909</v>
@@ -31385,8 +31801,8 @@
       <c r="C766" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D766" s="37">
-        <v>2607984330102</v>
+      <c r="D766" s="22" t="s">
+        <v>3762</v>
       </c>
       <c r="E766" s="25" t="s">
         <v>2912</v>
@@ -31411,8 +31827,8 @@
       <c r="C767" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D767" s="36">
-        <v>1501980105035</v>
+      <c r="D767" s="16" t="s">
+        <v>3716</v>
       </c>
       <c r="E767" s="5" t="s">
         <v>2915</v>
@@ -31437,8 +31853,8 @@
       <c r="C768" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D768" s="36">
-        <v>507985198079</v>
+      <c r="D768" s="16" t="s">
+        <v>3715</v>
       </c>
       <c r="E768" s="5" t="s">
         <v>2918</v>
@@ -31463,8 +31879,8 @@
       <c r="C769" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D769" s="36">
-        <v>1308978100080</v>
+      <c r="D769" s="16" t="s">
+        <v>3714</v>
       </c>
       <c r="E769" s="5" t="s">
         <v>2921</v>
@@ -31489,8 +31905,8 @@
       <c r="C770" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D770" s="36">
-        <v>1309967195027</v>
+      <c r="D770" s="16" t="s">
+        <v>3713</v>
       </c>
       <c r="E770" s="5" t="s">
         <v>2924</v>
@@ -31515,8 +31931,8 @@
       <c r="C771" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D771" s="36">
-        <v>1010003106437</v>
+      <c r="D771" s="16" t="s">
+        <v>3712</v>
       </c>
       <c r="E771" s="5" t="s">
         <v>2927</v>
@@ -31541,8 +31957,8 @@
       <c r="C772" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D772" s="36">
-        <v>2212000105001</v>
+      <c r="D772" s="16" t="s">
+        <v>3711</v>
       </c>
       <c r="E772" s="5" t="s">
         <v>2930</v>
@@ -31567,8 +31983,8 @@
       <c r="C773" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D773" s="36">
-        <v>1307983105019</v>
+      <c r="D773" s="16" t="s">
+        <v>3710</v>
       </c>
       <c r="E773" s="5" t="s">
         <v>2933</v>
@@ -31593,8 +32009,8 @@
       <c r="C774" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D774" s="36">
-        <v>803991105021</v>
+      <c r="D774" s="16" t="s">
+        <v>3709</v>
       </c>
       <c r="E774" s="5" t="s">
         <v>2936</v>
@@ -31619,8 +32035,8 @@
       <c r="C775" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D775" s="36">
-        <v>1804000105002</v>
+      <c r="D775" s="16" t="s">
+        <v>3708</v>
       </c>
       <c r="E775" s="5" t="s">
         <v>2939</v>
@@ -31645,8 +32061,8 @@
       <c r="C776" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D776" s="36">
-        <v>509996105024</v>
+      <c r="D776" s="16" t="s">
+        <v>3707</v>
       </c>
       <c r="E776" s="5" t="s">
         <v>2942</v>
@@ -31671,8 +32087,8 @@
       <c r="C777" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D777" s="36">
-        <v>2501976109119</v>
+      <c r="D777" s="16" t="s">
+        <v>3706</v>
       </c>
       <c r="E777" s="5" t="s">
         <v>2945</v>
@@ -31697,8 +32113,8 @@
       <c r="C778" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D778" s="36">
-        <v>2805980107731</v>
+      <c r="D778" s="16" t="s">
+        <v>3705</v>
       </c>
       <c r="E778" s="5" t="s">
         <v>2948</v>
@@ -31723,8 +32139,8 @@
       <c r="C779" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D779" s="36">
-        <v>1803989100016</v>
+      <c r="D779" s="16" t="s">
+        <v>3704</v>
       </c>
       <c r="E779" s="5" t="s">
         <v>2951</v>
@@ -31749,8 +32165,8 @@
       <c r="C780" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D780" s="36">
-        <v>707992125000</v>
+      <c r="D780" s="16" t="s">
+        <v>3703</v>
       </c>
       <c r="E780" s="5" t="s">
         <v>2954</v>
@@ -31775,8 +32191,8 @@
       <c r="C781" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D781" s="36">
-        <v>908996105026</v>
+      <c r="D781" s="16" t="s">
+        <v>3702</v>
       </c>
       <c r="E781" s="5" t="s">
         <v>2957</v>
@@ -31801,8 +32217,8 @@
       <c r="C782" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D782" s="36">
-        <v>305988118244</v>
+      <c r="D782" s="16" t="s">
+        <v>3701</v>
       </c>
       <c r="E782" s="5" t="s">
         <v>2960</v>
@@ -31827,8 +32243,8 @@
       <c r="C783" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D783" s="36">
-        <v>1010982100068</v>
+      <c r="D783" s="16" t="s">
+        <v>3700</v>
       </c>
       <c r="E783" s="5" t="s">
         <v>2963</v>
@@ -31853,8 +32269,8 @@
       <c r="C784" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D784" s="38">
-        <v>1407986175047</v>
+      <c r="D784" s="17" t="s">
+        <v>3699</v>
       </c>
       <c r="E784" s="5" t="s">
         <v>2966</v>
@@ -31879,8 +32295,8 @@
       <c r="C785" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D785" s="36">
-        <v>2203965103932</v>
+      <c r="D785" s="16" t="s">
+        <v>3698</v>
       </c>
       <c r="E785" s="5" t="s">
         <v>2969</v>
@@ -31905,8 +32321,8 @@
       <c r="C786" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D786" s="36">
-        <v>1005984100022</v>
+      <c r="D786" s="16" t="s">
+        <v>3697</v>
       </c>
       <c r="E786" s="5" t="s">
         <v>2972</v>
@@ -31931,8 +32347,8 @@
       <c r="C787" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D787" s="36">
-        <v>1604987100016</v>
+      <c r="D787" s="16" t="s">
+        <v>3696</v>
       </c>
       <c r="E787" s="5" t="s">
         <v>2975</v>
@@ -31957,8 +32373,8 @@
       <c r="C788" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D788" s="36">
-        <v>910959100043</v>
+      <c r="D788" s="16" t="s">
+        <v>3695</v>
       </c>
       <c r="E788" s="5" t="s">
         <v>2978</v>
@@ -31983,8 +32399,8 @@
       <c r="C789" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D789" s="36">
-        <v>706988105031</v>
+      <c r="D789" s="16" t="s">
+        <v>3694</v>
       </c>
       <c r="E789" s="5" t="s">
         <v>2981</v>
@@ -32009,8 +32425,8 @@
       <c r="C790" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D790" s="36">
-        <v>407986100000</v>
+      <c r="D790" s="16" t="s">
+        <v>3693</v>
       </c>
       <c r="E790" s="5" t="s">
         <v>2983</v>
@@ -32035,8 +32451,8 @@
       <c r="C791" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D791" s="36">
-        <v>1610988105046</v>
+      <c r="D791" s="16" t="s">
+        <v>3692</v>
       </c>
       <c r="E791" s="5" t="s">
         <v>2986</v>
@@ -32061,8 +32477,8 @@
       <c r="C792" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D792" s="36">
-        <v>1110004105005</v>
+      <c r="D792" s="16" t="s">
+        <v>3691</v>
       </c>
       <c r="E792" s="5" t="s">
         <v>2989</v>
@@ -32087,8 +32503,8 @@
       <c r="C793" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D793" s="36">
-        <v>1111002710234</v>
+      <c r="D793" s="16" t="s">
+        <v>3690</v>
       </c>
       <c r="E793" s="5" t="s">
         <v>2992</v>
@@ -32113,8 +32529,8 @@
       <c r="C794" s="5" t="s">
         <v>2660</v>
       </c>
-      <c r="D794" s="36">
-        <v>1603945100036</v>
+      <c r="D794" s="16" t="s">
+        <v>3689</v>
       </c>
       <c r="E794" s="5" t="s">
         <v>2995</v>
@@ -32139,8 +32555,8 @@
       <c r="C795" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D795" s="36">
-        <v>3103960118248</v>
+      <c r="D795" s="16" t="s">
+        <v>3688</v>
       </c>
       <c r="E795" s="5" t="s">
         <v>2998</v>
@@ -32165,8 +32581,8 @@
       <c r="C796" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D796" s="36">
-        <v>2301965109312</v>
+      <c r="D796" s="16" t="s">
+        <v>3687</v>
       </c>
       <c r="E796" s="5" t="s">
         <v>3001</v>
@@ -32191,8 +32607,8 @@
       <c r="C797" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D797" s="36">
-        <v>1211961105034</v>
+      <c r="D797" s="16" t="s">
+        <v>3686</v>
       </c>
       <c r="E797" s="5" t="s">
         <v>3004</v>
@@ -32217,8 +32633,8 @@
       <c r="C798" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D798" s="36">
-        <v>2103006105069</v>
+      <c r="D798" s="16" t="s">
+        <v>3685</v>
       </c>
       <c r="E798" s="5" t="s">
         <v>3007</v>
@@ -32243,8 +32659,8 @@
       <c r="C799" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D799" s="36">
-        <v>210975105002</v>
+      <c r="D799" s="16" t="s">
+        <v>3684</v>
       </c>
       <c r="E799" s="5" t="s">
         <v>3010</v>
@@ -32269,8 +32685,8 @@
       <c r="C800" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D800" s="36">
-        <v>305999105039</v>
+      <c r="D800" s="16" t="s">
+        <v>3683</v>
       </c>
       <c r="E800" s="5" t="s">
         <v>3013</v>
@@ -32295,8 +32711,8 @@
       <c r="C801" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D801" s="36">
-        <v>811996105006</v>
+      <c r="D801" s="16" t="s">
+        <v>3682</v>
       </c>
       <c r="E801" s="5" t="s">
         <v>3016</v>
@@ -32321,8 +32737,8 @@
       <c r="C802" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D802" s="36">
-        <v>712979105002</v>
+      <c r="D802" s="16" t="s">
+        <v>3681</v>
       </c>
       <c r="E802" s="5" t="s">
         <v>3019</v>
@@ -32347,8 +32763,8 @@
       <c r="C803" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D803" s="36">
-        <v>2105974100022</v>
+      <c r="D803" s="16" t="s">
+        <v>3680</v>
       </c>
       <c r="E803" s="5" t="s">
         <v>3022</v>
@@ -32373,8 +32789,8 @@
       <c r="C804" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D804" s="36">
-        <v>112997100002</v>
+      <c r="D804" s="16" t="s">
+        <v>3679</v>
       </c>
       <c r="E804" s="5" t="s">
         <v>3025</v>
@@ -32399,8 +32815,8 @@
       <c r="C805" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D805" s="36">
-        <v>1210983382116</v>
+      <c r="D805" s="16" t="s">
+        <v>3678</v>
       </c>
       <c r="E805" s="5" t="s">
         <v>3028</v>
@@ -32425,8 +32841,8 @@
       <c r="C806" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D806" s="37">
-        <v>1512997105022</v>
+      <c r="D806" s="22" t="s">
+        <v>3677</v>
       </c>
       <c r="E806" s="19" t="s">
         <v>3031</v>
@@ -32451,8 +32867,8 @@
       <c r="C807" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D807" s="36">
-        <v>2409969105023</v>
+      <c r="D807" s="16" t="s">
+        <v>3676</v>
       </c>
       <c r="E807" s="5" t="s">
         <v>3034</v>
@@ -32477,8 +32893,8 @@
       <c r="C808" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D808" s="36">
-        <v>1307004105011</v>
+      <c r="D808" s="16" t="s">
+        <v>3675</v>
       </c>
       <c r="E808" s="5" t="s">
         <v>3037</v>
@@ -32503,8 +32919,8 @@
       <c r="C809" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D809" s="36">
-        <v>2511989105053</v>
+      <c r="D809" s="16" t="s">
+        <v>3674</v>
       </c>
       <c r="E809" s="5" t="s">
         <v>3040</v>
@@ -32529,8 +32945,8 @@
       <c r="C810" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D810" s="36">
-        <v>1902988105020</v>
+      <c r="D810" s="16" t="s">
+        <v>3673</v>
       </c>
       <c r="E810" s="5" t="s">
         <v>3043</v>
@@ -32555,8 +32971,8 @@
       <c r="C811" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D811" s="36">
-        <v>1901998105006</v>
+      <c r="D811" s="16" t="s">
+        <v>3672</v>
       </c>
       <c r="E811" s="5" t="s">
         <v>1197</v>
@@ -34885,7 +35301,7 @@
       <c r="C901" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D901" s="35" t="s">
+      <c r="D901" s="34" t="s">
         <v>3392</v>
       </c>
       <c r="E901" s="28" t="s">
@@ -34911,7 +35327,7 @@
       <c r="C902" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D902" s="35" t="s">
+      <c r="D902" s="34" t="s">
         <v>3396</v>
       </c>
       <c r="E902" s="28" t="s">
@@ -36451,7 +36867,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G305" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState ref="A2:H968">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H968">
     <sortCondition ref="A136"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/documents/rezervni.xlsx
+++ b/src/main/resources/documents/rezervni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Documents\Izbori\flow-crm-tutorial\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D83C7-8897-42AA-B93C-95C64B36CF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0295E263-9B42-4445-8320-917EC6ED33F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-225" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="РЕЗЕРВНИ ЧЛАНОВИ" sheetId="2" r:id="rId1"/>
@@ -11993,10 +11993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K968"/>
+  <dimension ref="A1:K956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A942" workbookViewId="0">
-      <selection activeCell="D960" sqref="D960"/>
+      <selection activeCell="O957" sqref="O957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36733,141 +36733,9 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A957" s="2">
-        <v>956</v>
-      </c>
-      <c r="B957" s="5"/>
-      <c r="C957" s="5"/>
-      <c r="D957" s="8"/>
-      <c r="E957" s="5"/>
-      <c r="F957" s="5"/>
-      <c r="G957" s="5"/>
-    </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A958" s="2">
-        <v>957</v>
-      </c>
-      <c r="B958" s="5"/>
-      <c r="C958" s="5"/>
-      <c r="D958" s="8"/>
-      <c r="E958" s="5"/>
-      <c r="F958" s="5"/>
-      <c r="G958" s="5"/>
-    </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A959" s="2">
-        <v>958</v>
-      </c>
-      <c r="B959" s="5"/>
-      <c r="C959" s="5"/>
-      <c r="D959" s="8"/>
-      <c r="E959" s="5"/>
-      <c r="F959" s="5"/>
-      <c r="G959" s="5"/>
-    </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A960" s="2">
-        <v>959</v>
-      </c>
-      <c r="B960" s="5"/>
-      <c r="C960" s="5"/>
-      <c r="D960" s="8"/>
-      <c r="E960" s="5"/>
-      <c r="F960" s="5"/>
-      <c r="G960" s="5"/>
-    </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A961" s="2">
-        <v>960</v>
-      </c>
-      <c r="B961" s="5"/>
-      <c r="C961" s="5"/>
-      <c r="D961" s="8"/>
-      <c r="E961" s="5"/>
-      <c r="F961" s="5"/>
-      <c r="G961" s="5"/>
-    </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A962" s="2">
-        <v>961</v>
-      </c>
-      <c r="B962" s="5"/>
-      <c r="C962" s="5"/>
-      <c r="D962" s="8"/>
-      <c r="E962" s="5"/>
-      <c r="F962" s="5"/>
-      <c r="G962" s="5"/>
-    </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A963" s="2">
-        <v>962</v>
-      </c>
-      <c r="B963" s="5"/>
-      <c r="C963" s="5"/>
-      <c r="D963" s="8"/>
-      <c r="E963" s="5"/>
-      <c r="F963" s="5"/>
-      <c r="G963" s="5"/>
-    </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A964" s="2">
-        <v>963</v>
-      </c>
-      <c r="B964" s="5"/>
-      <c r="C964" s="5"/>
-      <c r="D964" s="8"/>
-      <c r="E964" s="5"/>
-      <c r="F964" s="5"/>
-      <c r="G964" s="5"/>
-    </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A965" s="2">
-        <v>964</v>
-      </c>
-      <c r="B965" s="5"/>
-      <c r="C965" s="5"/>
-      <c r="D965" s="8"/>
-      <c r="E965" s="5"/>
-      <c r="F965" s="5"/>
-      <c r="G965" s="5"/>
-    </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A966" s="2">
-        <v>965</v>
-      </c>
-      <c r="B966" s="5"/>
-      <c r="C966" s="5"/>
-      <c r="D966" s="8"/>
-      <c r="E966" s="5"/>
-      <c r="F966" s="5"/>
-      <c r="G966" s="5"/>
-    </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A967" s="2">
-        <v>966</v>
-      </c>
-      <c r="B967" s="5"/>
-      <c r="C967" s="5"/>
-      <c r="D967" s="8"/>
-      <c r="E967" s="5"/>
-      <c r="F967" s="5"/>
-      <c r="G967" s="5"/>
-    </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A968" s="2">
-        <v>967</v>
-      </c>
-      <c r="B968" s="5"/>
-      <c r="C968" s="5"/>
-      <c r="D968" s="8"/>
-      <c r="E968" s="5"/>
-      <c r="F968" s="5"/>
-      <c r="G968" s="5"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G305" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H968">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H956">
     <sortCondition ref="A136"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
